--- a/Doc_esterna/PianoDiProgetto/Charts/GraficiPreventivo.xlsx
+++ b/Doc_esterna/PianoDiProgetto/Charts/GraficiPreventivo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaco\Desktop\UNIPD\SWE\CodeBusters-Docs\Doc_esterna\PianoDiProgetto\Charts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\SWE\RepoDocumentazione\CodeBusters-Docs\Doc_esterna\PianoDiProgetto\Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EFD51B-CF2E-405D-85F1-51E396F24583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F7AFF3-3942-495A-92E8-0C29535A4387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="22">
   <si>
     <t>Baldisseri Michele</t>
   </si>
@@ -88,24 +88,6 @@
   </si>
   <si>
     <t>Zenere Marco</t>
-  </si>
-  <si>
-    <t>Responsabile</t>
-  </si>
-  <si>
-    <t>Amministratore</t>
-  </si>
-  <si>
-    <t>Analista</t>
-  </si>
-  <si>
-    <t>Progettista</t>
-  </si>
-  <si>
-    <t>Programmatore</t>
-  </si>
-  <si>
-    <t>Verificatore</t>
   </si>
   <si>
     <t>ORE</t>
@@ -1092,32 +1074,157 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5977011494252873E-2"/>
+                  <c:y val="0.15686274509803921"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-70CA-4536-B8FE-A79353B885A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10727969348659015"/>
+                  <c:y val="0.12745098039215685"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-70CA-4536-B8FE-A79353B885A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11647509578544062"/>
+                  <c:y val="-3.9215686274509803E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-70CA-4536-B8FE-A79353B885A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.662835249042145E-2"/>
+                  <c:y val="-0.18627450980392157"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-70CA-4536-B8FE-A79353B885A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10421455938697312"/>
+                  <c:y val="-0.18137254901960792"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-70CA-4536-B8FE-A79353B885A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12260536398467432"/>
+                  <c:y val="0.18627450980392157"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-70CA-4536-B8FE-A79353B885A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="25000"/>
-                    <a:lumOff val="75000"/>
-                  </a:sysClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1156,22 +1263,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Responsabile</c:v>
+                  <c:v>RE</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Amministratore</c:v>
+                  <c:v>AM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Analista</c:v>
+                  <c:v>AN</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Progettista</c:v>
+                  <c:v>PT</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Programmatore</c:v>
+                  <c:v>PR</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Verificatore</c:v>
+                  <c:v>VE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1259,7 +1366,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="1">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -2173,32 +2287,157 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9664378337147213E-2"/>
+                  <c:y val="0.1684717208182912"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4F09-4898-BCF0-FC70978E6406}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10068649885583524"/>
+                  <c:y val="0.1299638989169675"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4F09-4898-BCF0-FC70978E6406}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.6277650648360035E-2"/>
+                  <c:y val="3.3694344163658199E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4F09-4898-BCF0-FC70978E6406}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14645308924485137"/>
+                  <c:y val="-0.16365824308062576"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-4F09-4898-BCF0-FC70978E6406}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.1533180778031978E-2"/>
+                  <c:y val="-0.21660649819494585"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-4F09-4898-BCF0-FC70978E6406}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11899313501144165"/>
+                  <c:y val="0.18772563176895307"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-4F09-4898-BCF0-FC70978E6406}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="25000"/>
-                    <a:lumOff val="75000"/>
-                  </a:sysClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2237,22 +2476,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Responsabile</c:v>
+                  <c:v>RE</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Amministratore</c:v>
+                  <c:v>AM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Analista</c:v>
+                  <c:v>AN</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Progettista</c:v>
+                  <c:v>PT</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Programmatore</c:v>
+                  <c:v>PR</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Verificatore</c:v>
+                  <c:v>VE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2340,7 +2579,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="1">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -4814,17 +5060,327 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.9057402090448176E-2"/>
+                  <c:y val="0.19753078738960342"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{EAA11FFF-4E67-4B34-96E7-0166FC1E3183}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="95000"/>
+                            <a:lumOff val="5000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[NOME CATEGORIA]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="95000"/>
+                            <a:lumOff val="5000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{250D0A3F-8A6C-4EA1-AC1F-A890A79AE62E}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="95000"/>
+                            <a:lumOff val="5000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[PERCENTUALE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="95000"/>
+                          <a:lumOff val="5000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-3747-4CAB-B948-2488C51B42D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15203346555855418"/>
+                  <c:y val="3.9506157477920682E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="95000"/>
+                          <a:lumOff val="5000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-3747-4CAB-B948-2488C51B42D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8244015867026561E-2"/>
+                  <c:y val="-0.24691348423700438"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="95000"/>
+                          <a:lumOff val="5000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-3747-4CAB-B948-2488C51B42D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12770811106918553"/>
+                  <c:y val="0.12839501180324228"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="95000"/>
+                          <a:lumOff val="5000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-3747-4CAB-B948-2488C51B42D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="25000"/>
-                    <a:lumOff val="75000"/>
-                  </a:sysClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -4878,16 +5434,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Responsabile</c:v>
+                  <c:v>RE</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Amministratore</c:v>
+                  <c:v>AM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Analista</c:v>
+                  <c:v>AN</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Verificatore</c:v>
+                  <c:v>VE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5125,32 +5681,196 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7649769585253458E-2"/>
+                  <c:y val="0.13846153846153847"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E02C-4DA9-9ACF-77FDA80CF46D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.2165898617511635E-2"/>
+                  <c:y val="0.15384615384615385"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E02C-4DA9-9ACF-77FDA80CF46D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13824884792626729"/>
+                  <c:y val="-4.6153846153846247E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr">
+                    <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="95000"/>
+                          <a:lumOff val="5000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-E02C-4DA9-9ACF-77FDA80CF46D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.2165898617512076E-3"/>
+                  <c:y val="-0.23076923076923078"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-E02C-4DA9-9ACF-77FDA80CF46D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10752688172043011"/>
+                  <c:y val="-4.1025641025641026E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-E02C-4DA9-9ACF-77FDA80CF46D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.5238095238095233E-2"/>
+                  <c:y val="0.19999999999999996"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-E02C-4DA9-9ACF-77FDA80CF46D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="25000"/>
-                    <a:lumOff val="75000"/>
-                  </a:sysClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="0">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr algn="ctr">
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -5189,22 +5909,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Responsabile</c:v>
+                  <c:v>RE</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Amministratore</c:v>
+                  <c:v>AM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Analista</c:v>
+                  <c:v>AN</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Progettista</c:v>
+                  <c:v>PT</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Programmatore</c:v>
+                  <c:v>PR</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Verificatore</c:v>
+                  <c:v>VE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5291,8 +6011,15 @@
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
-      <a:pPr>
-        <a:defRPr/>
+      <a:pPr algn="ctr">
+        <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -5428,17 +6155,120 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0511060259344067E-2"/>
+                  <c:y val="0.13636363636363635"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-2CE5-483C-8F81-269E266023CB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.7124332570556944E-2"/>
+                  <c:y val="0.14646464646464644"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-2CE5-483C-8F81-269E266023CB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14340198321891698"/>
+                  <c:y val="4.6295761483709066E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-2CE5-483C-8F81-269E266023CB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.4919908466819281E-2"/>
+                  <c:y val="-0.25757575757575757"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-2CE5-483C-8F81-269E266023CB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11594202898550719"/>
+                  <c:y val="0.20707070707070707"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-2CE5-483C-8F81-269E266023CB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="25000"/>
-                    <a:lumOff val="75000"/>
-                  </a:sysClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -5449,11 +6279,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -5492,19 +6322,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Responsabile</c:v>
+                  <c:v>RE</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Amministratore</c:v>
+                  <c:v>AM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Progettista</c:v>
+                  <c:v>PT</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Programmatore</c:v>
+                  <c:v>PR</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Verificatore</c:v>
+                  <c:v>VE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5725,32 +6555,135 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.7283671933784807E-2"/>
+                  <c:y val="0.19323671497584541"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-F996-4ECE-8C30-1ED5D7FD986F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11738148984198646"/>
+                  <c:y val="4.8309178743961394E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-F996-4ECE-8C30-1ED5D7FD986F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10835214446952596"/>
+                  <c:y val="-0.11594202898550733"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-F996-4ECE-8C30-1ED5D7FD986F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2039127163280717E-2"/>
+                  <c:y val="-0.20289855072463769"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-F996-4ECE-8C30-1ED5D7FD986F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17757712565838976"/>
+                  <c:y val="3.8647342995169039E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-F996-4ECE-8C30-1ED5D7FD986F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="25000"/>
-                    <a:lumOff val="75000"/>
-                  </a:sysClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -5789,19 +6722,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Responsabile</c:v>
+                  <c:v>RE</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Amministratore</c:v>
+                  <c:v>AM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Progettista</c:v>
+                  <c:v>PT</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Programmatore</c:v>
+                  <c:v>PR</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Verificatore</c:v>
+                  <c:v>VE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5886,7 +6819,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="1">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -13429,14 +14369,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -13501,16 +14441,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13609,16 +14549,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13681,16 +14621,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13983,8 +14923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="I134" sqref="I134"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="Q124" sqref="Q124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14027,10 +14967,10 @@
         <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -14060,7 +15000,7 @@
         <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L3">
         <v>25</v>
@@ -14097,7 +15037,7 @@
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L4">
         <v>45</v>
@@ -14134,7 +15074,7 @@
         <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L5">
         <v>78</v>
@@ -14171,7 +15111,7 @@
         <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -14208,7 +15148,7 @@
         <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -14245,7 +15185,7 @@
         <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L8">
         <v>62</v>
@@ -14360,10 +15300,10 @@
         <v>7</v>
       </c>
       <c r="L29" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -14393,7 +15333,7 @@
         <v>32</v>
       </c>
       <c r="K30" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L30">
         <v>12</v>
@@ -14430,7 +15370,7 @@
         <v>32</v>
       </c>
       <c r="K31" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L31">
         <v>30</v>
@@ -14467,7 +15407,7 @@
         <v>32</v>
       </c>
       <c r="K32" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L32">
         <v>43</v>
@@ -14504,7 +15444,7 @@
         <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L33">
         <v>60</v>
@@ -14541,7 +15481,7 @@
         <v>32</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L34">
         <v>34</v>
@@ -14578,7 +15518,7 @@
         <v>32</v>
       </c>
       <c r="K35" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L35">
         <v>45</v>
@@ -14693,10 +15633,10 @@
         <v>7</v>
       </c>
       <c r="L56" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M56" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -14726,7 +15666,7 @@
         <v>50</v>
       </c>
       <c r="K57" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L57">
         <v>20</v>
@@ -14763,7 +15703,7 @@
         <v>50</v>
       </c>
       <c r="K58" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L58">
         <v>27</v>
@@ -14800,7 +15740,7 @@
         <v>50</v>
       </c>
       <c r="K59" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -14837,7 +15777,7 @@
         <v>50</v>
       </c>
       <c r="K60" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L60">
         <v>75</v>
@@ -14874,7 +15814,7 @@
         <v>50</v>
       </c>
       <c r="K61" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L61">
         <v>147</v>
@@ -14911,7 +15851,7 @@
         <v>50</v>
       </c>
       <c r="K62" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L62">
         <v>81</v>
@@ -15026,10 +15966,10 @@
         <v>7</v>
       </c>
       <c r="L81" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M81" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -15059,7 +15999,7 @@
         <v>20</v>
       </c>
       <c r="K82" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L82">
         <v>20</v>
@@ -15096,7 +16036,7 @@
         <v>20</v>
       </c>
       <c r="K83" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L83">
         <v>20</v>
@@ -15133,7 +16073,7 @@
         <v>20</v>
       </c>
       <c r="K84" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -15170,7 +16110,7 @@
         <v>20</v>
       </c>
       <c r="K85" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L85">
         <v>15</v>
@@ -15207,7 +16147,7 @@
         <v>20</v>
       </c>
       <c r="K86" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L86">
         <v>30</v>
@@ -15244,7 +16184,7 @@
         <v>20</v>
       </c>
       <c r="K87" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L87">
         <v>55</v>
@@ -15327,7 +16267,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B107" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -15359,10 +16299,10 @@
         <v>7</v>
       </c>
       <c r="L108" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M108" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -15398,7 +16338,7 @@
         <v>132</v>
       </c>
       <c r="K109" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L109">
         <f>SUM(L3,L30,L57,L82)</f>
@@ -15442,7 +16382,7 @@
         <v>132</v>
       </c>
       <c r="K110" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L110">
         <f t="shared" ref="L110:L115" si="25">SUM(L4,L31,L58,L83)</f>
@@ -15486,7 +16426,7 @@
         <v>132</v>
       </c>
       <c r="K111" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L111">
         <f t="shared" si="25"/>
@@ -15530,7 +16470,7 @@
         <v>132</v>
       </c>
       <c r="K112" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L112">
         <f t="shared" si="25"/>
@@ -15574,7 +16514,7 @@
         <v>132</v>
       </c>
       <c r="K113" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L113">
         <f t="shared" si="25"/>
@@ -15618,7 +16558,7 @@
         <v>132</v>
       </c>
       <c r="K114" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L114">
         <f t="shared" si="25"/>
@@ -15706,12 +16646,15 @@
         <v>924</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q130" s="2"/>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B135" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -15720,7 +16663,7 @@
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>8</v>
       </c>
@@ -15743,13 +16686,13 @@
         <v>7</v>
       </c>
       <c r="L136" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M136" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -15782,7 +16725,7 @@
         <v>102</v>
       </c>
       <c r="K137" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L137">
         <f>SUM(L82,L57,L30)</f>
@@ -15793,7 +16736,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -15826,7 +16769,7 @@
         <v>102</v>
       </c>
       <c r="K138" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L138">
         <f t="shared" ref="L138:L143" si="28">SUM(L83,L58,L31)</f>
@@ -15837,7 +16780,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -15870,7 +16813,7 @@
         <v>102</v>
       </c>
       <c r="K139" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L139">
         <f t="shared" si="28"/>
@@ -15881,7 +16824,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -15914,7 +16857,7 @@
         <v>102</v>
       </c>
       <c r="K140" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L140">
         <f t="shared" si="28"/>
@@ -15925,7 +16868,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>3</v>
       </c>
@@ -15958,7 +16901,7 @@
         <v>102</v>
       </c>
       <c r="K141" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L141">
         <f t="shared" si="28"/>
@@ -15969,7 +16912,7 @@
         <v>3165</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -16002,7 +16945,7 @@
         <v>102</v>
       </c>
       <c r="K142" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L142">
         <f t="shared" si="28"/>
@@ -16013,7 +16956,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -16057,7 +17000,7 @@
         <v>13355</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>7</v>
       </c>
